--- a/DATA DICTIONARY/DATA DICTIONARY.xlsx
+++ b/DATA DICTIONARY/DATA DICTIONARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>SYSDATE</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Login User</t>
   </si>
 </sst>
 </file>
@@ -262,10 +262,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,10 +640,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:3" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,10 +672,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,10 +731,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -1298,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,10 +1316,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -1377,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -1397,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -1408,8 +1408,8 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>33</v>
+      <c r="F5" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -1430,8 +1430,8 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>34</v>
+      <c r="F6" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1441,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>

--- a/DATA DICTIONARY/DATA DICTIONARY.xlsx
+++ b/DATA DICTIONARY/DATA DICTIONARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>Contents</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Login User</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -628,8 +631,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,8 +716,8 @@
   </sheetPr>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,13 +834,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1024</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -847,16 +853,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -866,16 +869,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -886,16 +889,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="10">
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -905,21 +908,36 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -1276,10 +1294,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C13 C18:C111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C111 C3:C13">
       <formula1>"VARCHAR2,NUMBER,INTEGER,DATE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H98 E3:E13 E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H98 E18 E3:E13">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DATA DICTIONARY/DATA DICTIONARY.xlsx
+++ b/DATA DICTIONARY/DATA DICTIONARY.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
     <sheet name="Contents" sheetId="1" r:id="rId2"/>
     <sheet name="LOGIN_USER" sheetId="4" r:id="rId3"/>
     <sheet name="ROLE" sheetId="10" r:id="rId4"/>
+    <sheet name="EVENT" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
   <si>
     <t>Contents</t>
   </si>
@@ -125,6 +126,36 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>event_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>regist_by</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>is_all_day</t>
   </si>
 </sst>
 </file>
@@ -632,7 +663,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +713,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
@@ -703,6 +742,7 @@
   <hyperlinks>
     <hyperlink ref="B4" location="ROLE!A1" display="ROLE"/>
     <hyperlink ref="B3" location="LOGIN_USER!A1" display="LOGIN_USER"/>
+    <hyperlink ref="B5" location="EVENT!A1" display="EVENT"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -716,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1357,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,4 +1953,650 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:I98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1024</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1024</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C111 C3:C14">
+      <formula1>"VARCHAR2,NUMBER,INTEGER,DATE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H98 E18 E3:E14">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1:B1" location="Contents!A1" display="Book"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DATA DICTIONARY/DATA DICTIONARY.xlsx
+++ b/DATA DICTIONARY/DATA DICTIONARY.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
     <t>Contents</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>is_all_day</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1969,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,16 +2142,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2155,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -2174,16 +2183,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="10">
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2193,16 +2202,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2212,16 +2221,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D13" s="10">
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2231,21 +2240,36 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -2586,10 +2610,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C111 C3:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C111 C3:C15">
       <formula1>"VARCHAR2,NUMBER,INTEGER,DATE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H98 E18 E3:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E15 E18 G3:H98">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
